--- a/data/trans_camb/P16A_n_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A_n_R2-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>0.5953711402704398</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>5.345499615867411</v>
+        <v>5.345499615867409</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3956740999147893</v>
+        <v>0.3716295166087676</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.081856213236533</v>
+        <v>-1.033248727285263</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.868760735722195</v>
+        <v>2.418380847399524</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8886105393292133</v>
+        <v>1.047007283007563</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.915597411667075</v>
+        <v>-4.23969264317209</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.476680047939956</v>
+        <v>-1.870291522343074</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.156520504253196</v>
+        <v>1.185171747930158</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.756894315346837</v>
+        <v>-1.704937551011413</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.703619295256282</v>
+        <v>2.152439923221227</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.310931760323294</v>
+        <v>5.299610897213041</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.829632751142279</v>
+        <v>3.873291393765044</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.99047823055334</v>
+        <v>12.77440108315026</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.589731961241716</v>
+        <v>9.519159850582142</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.784957107270601</v>
+        <v>4.0627135442476</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>10.73278293259545</v>
+        <v>10.85842606902605</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.627214891797979</v>
+        <v>6.238693165273435</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.864343166076204</v>
+        <v>2.861714740103932</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.647563019990271</v>
+        <v>9.689867013063189</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.08976071629043365</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.8059105354561634</v>
+        <v>0.8059105354561632</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.05344988981222151</v>
+        <v>0.1349813318154498</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.349828755204334</v>
+        <v>-0.3712718668350209</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.7754121670943117</v>
+        <v>0.7490413853116884</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.06181405834813997</v>
+        <v>0.05412329191543034</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3004790911452048</v>
+        <v>-0.338405614790811</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1414230254882319</v>
+        <v>-0.1644362076831748</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1411240934738729</v>
+        <v>0.1425826683620103</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2273965925457254</v>
+        <v>-0.2285447024357148</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2247462524237493</v>
+        <v>0.2548561576719628</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.383448516149423</v>
+        <v>3.898182384521196</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.373823654157851</v>
+        <v>2.521005655912201</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>7.5799434361058</v>
+        <v>7.921620577083036</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.043617547416406</v>
+        <v>1.04543531821397</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4003026488936974</v>
+        <v>0.4547029761845278</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.065802350424169</v>
+        <v>1.101346386260136</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.154586639099195</v>
+        <v>1.156901101464216</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5119777623870796</v>
+        <v>0.520570222554031</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.688349498929328</v>
+        <v>1.657724675255326</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.493358494794636</v>
+        <v>3.342286056772581</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.763473190584302</v>
+        <v>1.492968776571638</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.194917565576347</v>
+        <v>4.977794162466024</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.049672030481909</v>
+        <v>1.80272872962373</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.7842207895845</v>
+        <v>-3.697293571918036</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.060469653567412</v>
+        <v>-1.240326600264861</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.92465318277795</v>
+        <v>3.658184366455827</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3561783010297789</v>
+        <v>0.3044530635619548</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.007778080886959</v>
+        <v>3.419586320556693</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.932604436433724</v>
+        <v>8.817149083884653</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.850556784247863</v>
+        <v>6.687354044174978</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.76292050356315</v>
+        <v>13.47650832983782</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.83321343775983</v>
+        <v>10.56481501322591</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.553475163501722</v>
+        <v>4.318149405152804</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.271571859336547</v>
+        <v>8.113459695876058</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>8.813668053406676</v>
+        <v>8.700063814903105</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.054488276088623</v>
+        <v>5.282361477150746</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>10.00455743218715</v>
+        <v>9.732296971928214</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.7169035113306783</v>
+        <v>0.6751814875757501</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3490187936319236</v>
+        <v>0.2956329505157825</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1.068959866219713</v>
+        <v>1.058545091137558</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1190909315227604</v>
+        <v>0.1116857440352809</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2330641648107768</v>
+        <v>-0.2238884169669572</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.07117342826558755</v>
+        <v>-0.08013890145883082</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3935748438961237</v>
+        <v>0.3682603176076808</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.03424334690623298</v>
+        <v>0.03040946006054304</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.4081955730708794</v>
+        <v>0.3516982350590061</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.221025717354422</v>
+        <v>3.087480679285363</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.41475778293943</v>
+        <v>2.36820103466661</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4.791279565494054</v>
+        <v>4.561933899186557</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8795803270824705</v>
+        <v>0.8353174862579787</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3738556149008871</v>
+        <v>0.3471205523310832</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6820750919776303</v>
+        <v>0.6713693729353343</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.197347037703294</v>
+        <v>1.16592369899924</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6919695155378777</v>
+        <v>0.7156481349771083</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.337366400220818</v>
+        <v>1.283258490011203</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>2.221161833565426</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>6.356019340143858</v>
+        <v>6.356019340143855</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.270686602918149</v>
+        <v>0.5740327180658159</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.283893032997369</v>
+        <v>-1.463253368008819</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.116221409642104</v>
+        <v>1.895196398668731</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.063175615774967</v>
+        <v>5.40852957663742</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.7074841674035953</v>
+        <v>-1.37241437425426</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.323692983576271</v>
+        <v>3.693525552101289</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.097240373770015</v>
+        <v>4.319130221492903</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.2279899202920903</v>
+        <v>-0.2712185597900512</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.753680534825005</v>
+        <v>3.671582283894388</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.770257226736878</v>
+        <v>7.635702753964163</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.148826784204438</v>
+        <v>4.905573144652937</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.64153738061335</v>
+        <v>9.219008118823059</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.39242112976307</v>
+        <v>13.7464339203184</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.215761185073164</v>
+        <v>6.698358692060779</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>11.40305779508546</v>
+        <v>11.25509565335052</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>9.670635736750691</v>
+        <v>9.808844347664255</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.056889178744816</v>
+        <v>4.797907521026636</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.273120498602477</v>
+        <v>9.159766919751275</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.1921438479090806</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.5498338729507991</v>
+        <v>0.5498338729507988</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1185326907720097</v>
+        <v>0.04174902338784192</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1218244843520728</v>
+        <v>-0.1604530572427317</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2085376326384115</v>
+        <v>0.1552138445029532</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.3021497361042534</v>
+        <v>0.3221956640150283</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.04029756831947836</v>
+        <v>-0.08790831067317117</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1933221907684969</v>
+        <v>0.2078100042874981</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3116832464900384</v>
+        <v>0.3236769202264251</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.01922475120656228</v>
+        <v>-0.02218090549404084</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.298601643138977</v>
+        <v>0.2876691058837417</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.094390771806607</v>
+        <v>1.074143901888284</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7415088474955125</v>
+        <v>0.6840512082884692</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.419859489526442</v>
+        <v>1.284095737700595</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.166699035784366</v>
+        <v>1.084166626462997</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6062981309238491</v>
+        <v>0.5351058485178484</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9060774928032407</v>
+        <v>0.9009036513639883</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9485201214983748</v>
+        <v>0.9402340545759674</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.493891489050019</v>
+        <v>0.4679904764233215</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.8948524539920346</v>
+        <v>0.9045620408772678</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>4.00078304987404</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>10.96417874208393</v>
+        <v>10.96417874208394</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.263000212332952</v>
+        <v>-2.194183701143526</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.8127538844925796</v>
+        <v>-0.3097495249578974</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.536362171585858</v>
+        <v>6.674841212843415</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.446776281153228</v>
+        <v>4.229165742364213</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.112740986396627</v>
+        <v>-0.7189623410378116</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.93324373021153</v>
+        <v>5.770561401228924</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.590295384164502</v>
+        <v>2.386167101296471</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.6119590761023616</v>
+        <v>0.430776330660139</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>7.392541749079921</v>
+        <v>7.625019978510622</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.287168016831568</v>
+        <v>7.13378493533166</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.323848042361934</v>
+        <v>8.849348342363077</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.37988289686049</v>
+        <v>15.97691691378857</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14.7845647725499</v>
+        <v>14.88530164554849</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>9.239667806288999</v>
+        <v>9.021552851320019</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>14.94491420634309</v>
+        <v>14.59652510935793</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>9.490668474431098</v>
+        <v>9.421622111032473</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.782183922997637</v>
+        <v>7.554292675042904</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>14.15619503080808</v>
+        <v>14.28420161096954</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.2565402355819996</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.7457366814668193</v>
+        <v>0.7457366814668189</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.4197259720227806</v>
@@ -1411,7 +1411,7 @@
         <v>0.2077419332935497</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.5693184710248826</v>
+        <v>0.569318471024883</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.132552259699982</v>
+        <v>-0.1279951851123178</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.04940283702282403</v>
+        <v>-0.02606646314568551</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3684350701432058</v>
+        <v>0.3475286078470972</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1674815852988908</v>
+        <v>0.1600603355685445</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.04434658540430027</v>
+        <v>-0.03194543301065627</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2172497926750082</v>
+        <v>0.2209136105192042</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1193858519191728</v>
+        <v>0.1109079200098818</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.02902917889090513</v>
+        <v>0.02022519247099717</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3421653521148474</v>
+        <v>0.3565882193454624</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5488260952146445</v>
+        <v>0.5391647250325959</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6497500520236433</v>
+        <v>0.6613044919723011</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.286724261982775</v>
+        <v>1.276036385928701</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7086855662613718</v>
+        <v>0.7256835085111839</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4355559157207882</v>
+        <v>0.440374103865596</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7391071025942415</v>
+        <v>0.7128540126504845</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5484307122154781</v>
+        <v>0.5316533568384183</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4524064916827484</v>
+        <v>0.4342769562217103</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.8347401647785155</v>
+        <v>0.820005889659258</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.4822560086100602</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>7.039857737291349</v>
+        <v>7.039857737291355</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>12.32591487149489</v>
@@ -1511,7 +1511,7 @@
         <v>8.116941021973078</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>7.605711705932694</v>
+        <v>7.605711705932706</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>9.552564381546508</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.6872758627268619</v>
+        <v>0.4501199389725487</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.040997853046632</v>
+        <v>-5.49433922510114</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.6140475975121202</v>
+        <v>1.359382315954071</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5.30426531521524</v>
+        <v>4.766038711112571</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.487938072906011</v>
+        <v>0.9505766093664145</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.34622874781381</v>
+        <v>1.686312799356066</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>4.297423205956624</v>
+        <v>4.32680071367121</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.3435833889329098</v>
+        <v>-0.3531319575729163</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>3.21404032029525</v>
+        <v>2.499809898798586</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.99856024542037</v>
+        <v>14.06962073266692</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.31711845418941</v>
+        <v>7.013912088113039</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13.1337000690092</v>
+        <v>13.1069759266538</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19.35073689654612</v>
+        <v>18.54458790035127</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>14.79390361183031</v>
+        <v>14.49467321792158</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>13.90896053951692</v>
+        <v>13.26871699390461</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>14.06518285614359</v>
+        <v>14.50026681832147</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.367155988738455</v>
+        <v>9.295241349271304</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>11.51900114419911</v>
+        <v>11.08228143139176</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.01411651403375302</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.2060694916596733</v>
+        <v>0.2060694916596734</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.2785315656010346</v>
@@ -1616,7 +1616,7 @@
         <v>0.1834204044334138</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1718680366568704</v>
+        <v>0.1718680366568707</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2429558382958754</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.02061775026780854</v>
+        <v>0.009471348782505162</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1651666755068001</v>
+        <v>-0.148098516351271</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.01980319489504333</v>
+        <v>0.03651890071453911</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1104302022507542</v>
+        <v>0.09913983117669609</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.0312925270903234</v>
+        <v>0.0187917273621501</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02774739446668582</v>
+        <v>0.03468603640554924</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1056299758956038</v>
+        <v>0.1043710966555502</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.007914870053240305</v>
+        <v>-0.008850175230924925</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.07905032453827149</v>
+        <v>0.06045922369108702</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4146172579737007</v>
+        <v>0.4519484633418674</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2542746547628694</v>
+        <v>0.231019018609541</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4328177499939685</v>
+        <v>0.4345144749881613</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.474645648767987</v>
+        <v>0.4505802273954446</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3643093838056274</v>
+        <v>0.3582593680292563</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3485676449862291</v>
+        <v>0.3358007249397923</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3848688929132724</v>
+        <v>0.3986109153799648</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2600261367891997</v>
+        <v>0.251379935331517</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3209035319565938</v>
+        <v>0.3088328623574093</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>13.76845445363145</v>
+        <v>13.6555095739527</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.4003525972195555</v>
+        <v>0.8072345852828304</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>0.8459948377415745</v>
+        <v>1.460649049623245</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1.987282683107846</v>
+        <v>1.234228182467882</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-7.305593666240198</v>
+        <v>-7.400028450703718</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-3.667205684970596</v>
+        <v>-3.844536124022893</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>9.639769249447177</v>
+        <v>9.235724228894679</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.406578196672423</v>
+        <v>-1.760091497569126</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.008962775151546762</v>
+        <v>-0.4084452682216624</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>29.55812897275298</v>
+        <v>29.67461289995254</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>16.1429241617194</v>
+        <v>15.11935508593977</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>15.30716392539162</v>
+        <v>15.18632712203982</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>15.60924258259703</v>
+        <v>15.19613200997881</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.519704235092251</v>
+        <v>6.881883693087476</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>7.42616605652225</v>
+        <v>7.598378189367609</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>19.8359676263878</v>
+        <v>19.99842663437915</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>8.646290708484274</v>
+        <v>8.419772372719919</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>8.846374191036004</v>
+        <v>9.032277222025561</v>
       </c>
     </row>
     <row r="37">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.2831784134583977</v>
+        <v>0.2817813880809762</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.003119106209542946</v>
+        <v>0.01345434400469847</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.01757891403405342</v>
+        <v>0.03045498999662584</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.02956287995246911</v>
+        <v>0.01960671761686781</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1076712820902541</v>
+        <v>-0.1082798120349553</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.05382153546592385</v>
+        <v>-0.05607129017469755</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1648540746730104</v>
+        <v>0.1586983158202603</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.03930161909330206</v>
+        <v>-0.031003061498223</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.0003633043425699705</v>
+        <v>-0.007180203718794011</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.732609533454404</v>
+        <v>0.7404932880583264</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.4069395796026344</v>
+        <v>0.3786484732980458</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.3857780238958006</v>
+        <v>0.3862819201173477</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.2540520519075828</v>
+        <v>0.2495601611712014</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1055996470052497</v>
+        <v>0.1100201461261289</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1199864279612972</v>
+        <v>0.1241218678004815</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.378670460075787</v>
+        <v>0.3796527189666836</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1622359384897995</v>
+        <v>0.16023142309755</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.1661129282206264</v>
+        <v>0.1678540535234833</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>4.524769388552386</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>7.511136456754109</v>
+        <v>7.511136456754097</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>14.16981945055125</v>
@@ -1948,7 +1948,7 @@
         <v>5.113956632247985</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>5.275841430695305</v>
+        <v>5.275841430695294</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>5.188222535349198</v>
+        <v>5.799677542345398</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.738601652817604</v>
+        <v>-1.28132012823605</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-5.924750232951633</v>
+        <v>-5.746314102694044</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>8.178258113157508</v>
+        <v>7.875644933375779</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.064096296415844</v>
+        <v>-2.15694236782756</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.454448115137724</v>
+        <v>1.691571286847078</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>9.106748441809543</v>
+        <v>9.317728525012701</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.144775144553098</v>
+        <v>-0.5161208110665733</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.3945281006222158</v>
+        <v>0.6610803317313454</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>22.40649905568997</v>
+        <v>21.83019438054188</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>14.12424344775102</v>
+        <v>14.43297929195226</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>9.991820883116095</v>
+        <v>10.58787279117549</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>20.88260063303263</v>
+        <v>20.28096676089481</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>11.75816130721027</v>
+        <v>12.04403783826384</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>13.20526453851019</v>
+        <v>13.3675395334541</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>18.76147141114087</v>
+        <v>19.16573772602265</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>10.60266174683144</v>
+        <v>10.73183039753645</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>9.625659841010416</v>
+        <v>10.04184105077353</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.06185432195709819</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1026784378967886</v>
+        <v>0.1026784378967885</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.2016153270645892</v>
@@ -2053,7 +2053,7 @@
         <v>0.07276395035257077</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.07506732879007598</v>
+        <v>0.07506732879007583</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.07590518592793263</v>
+        <v>0.08202824900173548</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.02431126878567414</v>
+        <v>-0.01767999825905657</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.08299709698645272</v>
+        <v>-0.08019931384932105</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1063992727242047</v>
+        <v>0.1013241272883757</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.02599982484573128</v>
+        <v>-0.02737732042827634</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01949068094784478</v>
+        <v>0.02324255230588558</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1241030113245219</v>
+        <v>0.1287705564379157</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.001090711632865389</v>
+        <v>-0.006960186407778761</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.007067327363725616</v>
+        <v>0.008889659268630839</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3720173411510017</v>
+        <v>0.3616060742230192</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.2313707520837348</v>
+        <v>0.2424057857653819</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.1631395953934571</v>
+        <v>0.1766319763247891</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.304911103823441</v>
+        <v>0.295951001104186</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.169497011342487</v>
+        <v>0.175659356300485</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1929877052016536</v>
+        <v>0.1969265834689874</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.280429204167049</v>
+        <v>0.2868147877499895</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1594615041548816</v>
+        <v>0.1584637831155446</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.1452630761546534</v>
+        <v>0.1493649366885243</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>5.488412264113957</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>12.16403363535548</v>
+        <v>12.16403363535549</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>10.21874009539218</v>
@@ -2153,7 +2153,7 @@
         <v>5.023867198973791</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>10.65713413978221</v>
+        <v>10.6571341397822</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>9.052289984357387</v>
@@ -2162,7 +2162,7 @@
         <v>5.289452673888811</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>11.46746768586551</v>
+        <v>11.46746768586552</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>5.822111808453808</v>
+        <v>5.705386763584781</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>3.553678277590502</v>
+        <v>3.402843403780857</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>10.10387049227954</v>
+        <v>9.951018925211407</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>7.959048259164014</v>
+        <v>7.904754031496941</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>2.708451048811938</v>
+        <v>2.740514601984045</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>8.632203157722019</v>
+        <v>8.520907051689031</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>7.563440864180168</v>
+        <v>7.486187951791267</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>3.573082776985144</v>
+        <v>3.733736951315461</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>9.9671147359534</v>
+        <v>9.816877952777132</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>9.844776808689598</v>
+        <v>10.04704678660134</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>7.411216457766344</v>
+        <v>7.439273723419708</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>14.23310160970584</v>
+        <v>14.18884403967007</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>12.46151612115392</v>
+        <v>12.48001318536901</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>7.501693921155689</v>
+        <v>7.16659596781779</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>12.75451469584172</v>
+        <v>12.80208792550874</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>10.71599189704621</v>
+        <v>10.70258474032143</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>6.932483339932634</v>
+        <v>6.878363915405204</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>12.90120071946508</v>
+        <v>12.88494393963244</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.314333182074243</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.6966603847272546</v>
+        <v>0.6966603847272549</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.3430766761215214</v>
@@ -2258,7 +2258,7 @@
         <v>0.1686677265308918</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.357795004425871</v>
+        <v>0.3577950044258709</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.3816618922741307</v>
@@ -2267,7 +2267,7 @@
         <v>0.2230134606933027</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.4834904122761126</v>
+        <v>0.4834904122761128</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.3138283559053542</v>
+        <v>0.3129814217145261</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.1909576744648331</v>
+        <v>0.1858510596789447</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.5478280450994513</v>
+        <v>0.5418326113855176</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.2573077578450207</v>
+        <v>0.2543931786546878</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.08651804124169697</v>
+        <v>0.08929425133289012</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2755697592515572</v>
+        <v>0.2751478830586321</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3098749652379146</v>
+        <v>0.3078126255184651</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.1474435457388514</v>
+        <v>0.1526831930801745</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.4039844985158165</v>
+        <v>0.4023005380619922</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.5901106215028546</v>
+        <v>0.6068048082089237</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.4483097640261959</v>
+        <v>0.4531202289740998</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.8696258862498087</v>
+        <v>0.8751178166327547</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.4344917300830659</v>
+        <v>0.4332594991855628</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.2619210355362934</v>
+        <v>0.2497786906083209</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.4449030206151153</v>
+        <v>0.4516245715583109</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.4696826415713122</v>
+        <v>0.4695917959616306</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.3037789161152037</v>
+        <v>0.2978742057806212</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.5607900540805281</v>
+        <v>0.560888861177227</v>
       </c>
     </row>
     <row r="52">
